--- a/medicine/Pharmacie/Flucloxacilline/Flucloxacilline.xlsx
+++ b/medicine/Pharmacie/Flucloxacilline/Flucloxacilline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La flucloxacilline est un composé organique  antibiotique bêta-lactamine de spectre étroit, de la classe des pénicillines.
@@ -512,7 +524,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa principale fonction est de traiter les infections causées par des bactéries Gram-positives sensibles et le Staphylococcus aureus stable c'est-à-dire sensible à l'oxacilline.
 En effet, elle est fréquemment utilisée pour prévenir et guérir les infections du nez et de la gorge, telles que les pneumonies et les amygdalites.
@@ -545,7 +559,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mode d'action de cet antibiotique est d'inhiber la synthèse des parois cellulaires bactériennes ou plus précisément les parois des chaînes polymères de peptidoglycanes, principaux constituants des parois des bactéries Gram-positives.
 </t>
